--- a/data/long_razon/P22-Estudios-long_razon.xlsx
+++ b/data/long_razon/P22-Estudios-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,44; 92,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 69,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-37,7; 17,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,79; 48,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 27,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 47,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-21,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-17,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-38,62; 4,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 37,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 0,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 31,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,86; -4,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 27,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-19,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-11,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-15,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,06%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-41,26; 6,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-28,0; 27,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,56; 11,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 23,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,4; 4,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,74; 14,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-15,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1144,223 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,68; 0,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 27,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,39; -1,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 20,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,87; -3,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 17,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P22-Estudios-long_razon.xlsx
+++ b/data/long_razon/P22-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,293 +787,140 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P22-Estudios-long_razon.xlsx
+++ b/data/long_razon/P22-Estudios-long_razon.xlsx
@@ -659,17 +659,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.2588062038864995</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2258608238492786</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.2048519726266707</v>
+      </c>
       <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="n">
+        <v>-0.134591533963376</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.1013593871309923</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.02246593179035476</v>
+      </c>
       <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="n">
+        <v>-0.1826141769895199</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.1567613464181319</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.08649197364535348</v>
+      </c>
       <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -679,17 +697,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.5378422184991598</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1308623484263412</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.6498687747279307</v>
+      </c>
       <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="n">
+        <v>-0.4012414886161728</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.1655640111503701</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.3061945317778219</v>
+      </c>
       <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="n">
+        <v>-0.4066707592298885</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.06969772454362419</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.4219704569931131</v>
+      </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -699,17 +735,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.1852651742331576</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.7131527917019145</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.3756687102479476</v>
+      </c>
       <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="n">
+        <v>0.2395931906973822</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.4284204468539659</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.5251573668379709</v>
+      </c>
       <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="n">
+        <v>0.08506790965510673</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.4261969732916986</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.2467673076288812</v>
+      </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -723,17 +777,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.1968560543140939</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.09669506141346317</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.1629928577488198</v>
+      </c>
       <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="n">
+        <v>-0.2172451340442285</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.09847171492111854</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.1834446149240342</v>
+      </c>
       <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="n">
+        <v>-0.2071777419885595</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.09759989425838921</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.173258231221597</v>
+      </c>
       <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -743,17 +815,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.4033378129362419</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1473311779923298</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3818896636076879</v>
+      </c>
       <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="n">
+        <v>-0.3897758538568248</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.09857574296231367</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.351832356470991</v>
+      </c>
       <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="n">
+        <v>-0.3402455669314095</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.06687218134478783</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.3211577916934397</v>
+      </c>
       <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -763,17 +853,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.1309203381660779</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.4188651573892749</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1336673549006229</v>
+      </c>
       <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="n">
+        <v>-0.00851742816147659</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.3183881969952606</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.03296943846745965</v>
+      </c>
       <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="n">
+        <v>-0.01961208228214994</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.2759794566117682</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>-0.01461707300338928</v>
+      </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -787,17 +895,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.2240081271943542</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.05860015175067897</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.03621444445210544</v>
+      </c>
       <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>-0.09752455334217609</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.013520969987782</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.1788208758346191</v>
+      </c>
       <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="n">
+        <v>-0.1594954058031429</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>-0.0320112690161097</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.08502279357692538</v>
+      </c>
       <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,17 +933,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.422898334248076</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2999626764089485</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2219076616406517</v>
+      </c>
       <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>-0.3180304122356742</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.188854305894164</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.3549514908541817</v>
+      </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>-0.3266011635746931</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.1720280543739684</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.2378075625948219</v>
+      </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -827,17 +971,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.1490847515644973</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.267933803363212</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.422691209926056</v>
+      </c>
       <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>0.1651552858480163</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.2055869205860705</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.04552440367102536</v>
+      </c>
       <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>0.03799666144856496</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.1465306599360023</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.1353063252795395</v>
+      </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -851,17 +1013,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.2145748414105485</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.07944603895103959</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1137219037643</v>
+      </c>
       <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="n">
+        <v>-0.1644188917546904</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.05995377225588058</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.1365936620453565</v>
+      </c>
       <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="n">
+        <v>-0.188157504165812</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.06881310863265627</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.1257501228854142</v>
+      </c>
       <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -871,17 +1051,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.3638973135380853</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.06485894952092716</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.3136172441368604</v>
+      </c>
       <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="n">
+        <v>-0.278006058306715</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.06143712669159972</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2663984679001432</v>
+      </c>
       <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="n">
+        <v>-0.2894938937510398</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.0388220561982088</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.2473354357106471</v>
+      </c>
       <c r="N14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -891,17 +1089,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>-0.04316925268289897</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.2719328818851174</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.08385584126119101</v>
+      </c>
       <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="n">
+        <v>-0.01251278556035049</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.1986109850910877</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.009166652774370454</v>
+      </c>
       <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="n">
+        <v>-0.0774088926076691</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.1973677823894381</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>-0.007111632335389462</v>
+      </c>
       <c r="N15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
